--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A4B671-7C2A-6349-BE0A-C35AF0762DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>timestamp</t>
   </si>
@@ -58,21 +67,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,17 +101,355 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf/>
-    <xf fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -131,7 +478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1737208669</v>
       </c>
@@ -161,5 +508,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2011</t>
+  </si>
+  <si>
+    <t>dep_sante___variable_3</t>
   </si>
 </sst>
 </file>
@@ -394,6 +397,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9">
+        <v>1746359037</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>dep_sante___variable_3</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_1</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_25</t>
+  </si>
+  <si>
+    <t>accident_route___variable_4</t>
   </si>
 </sst>
 </file>
@@ -420,6 +435,66 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>1746734601</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1746734601</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1746734601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -46,9 +46,6 @@
     <t>accident_route___variable_6</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -131,6 +128,57 @@
   </si>
   <si>
     <t>accident_route___variable_4</t>
+  </si>
+  <si>
+    <t>emploi_jeunes</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Données sur l’emploi des jeunes de 18 à 25 ans</t>
+  </si>
+  <si>
+    <t>Données sur l’emploi des jeunes de 18 à 36 ans</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_36</t>
+  </si>
+  <si>
+    <t>ser_pub_loc</t>
+  </si>
+  <si>
+    <t>variable 36</t>
+  </si>
+  <si>
+    <t>modality</t>
+  </si>
+  <si>
+    <t>modality_1</t>
+  </si>
+  <si>
+    <t>a_or_b_or_c</t>
+  </si>
+  <si>
+    <t>only_zero</t>
+  </si>
+  <si>
+    <t>a_or_b</t>
+  </si>
+  <si>
+    <t>canton_sigle</t>
+  </si>
+  <si>
+    <t>langue_sigle</t>
+  </si>
+  <si>
+    <t>oui_non</t>
+  </si>
+  <si>
+    <t>vide</t>
   </si>
 </sst>
 </file>
@@ -222,20 +270,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -246,25 +288,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -275,25 +311,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -304,25 +334,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -333,25 +357,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -362,25 +380,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -391,25 +403,19 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -423,16 +429,16 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -446,13 +452,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -466,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -486,13 +492,216 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1747315104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1747315150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1747315514</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1747315514</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1747315529</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1747315547</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1747315547</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1747315547</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>1747315547</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1747315547</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>vide</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>dfi</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>dff</t>
+  </si>
+  <si>
+    <t>2010/10</t>
+  </si>
+  <si>
+    <t>seco</t>
+  </si>
+  <si>
+    <t>2021/04</t>
   </si>
 </sst>
 </file>
@@ -704,6 +728,86 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23">
+        <v>1747340787</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1747340787</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>1747340787</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>1747340787</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -203,6 +203,57 @@
   </si>
   <si>
     <t>2021/04</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_12</t>
+  </si>
+  <si>
+    <t>source_var_ids</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_10, ser_pub_loc___variable_11</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>alias_3</t>
+  </si>
+  <si>
+    <t>sourceVar_ids</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>variable : source_var</t>
+  </si>
+  <si>
+    <t>variable : sourceVar</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>source_ids</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_14</t>
+  </si>
+  <si>
+    <t>accident_route___variable_7, dep_sante___variable_7</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_15</t>
+  </si>
+  <si>
+    <t>accident_route___variable_7</t>
   </si>
 </sst>
 </file>
@@ -808,6 +859,333 @@
         <v>63</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27">
+        <v>1747906147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>1747906281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>1747906551</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>1747906551</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1747906566</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1747907576</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>1747907576</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>1747907625</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>1747907625</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1747913177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>1747913221</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>1747913221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>1747913314</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1747913314</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1747918633</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>1747921769</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>1747921769</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>1747921769</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>accident_route___variable_7</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>images_aeriennes_1</t>
+  </si>
+  <si>
+    <t>images_aeriennes_2</t>
   </si>
 </sst>
 </file>
@@ -1186,6 +1195,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45">
+        <v>1749897806</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>1749897806</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -263,6 +263,111 @@
   </si>
   <si>
     <t>images_aeriennes_2</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>variable_1---null</t>
+  </si>
+  <si>
+    <t>variable_1---value_1</t>
+  </si>
+  <si>
+    <t>variable_1---value_2</t>
+  </si>
+  <si>
+    <t>accident_route___variable_1---value</t>
+  </si>
+  <si>
+    <t>accident_route___variable_1---value_1</t>
+  </si>
+  <si>
+    <t>accident_route___variable_1---value_2</t>
+  </si>
+  <si>
+    <t>accident_route___variable_1---value_3</t>
+  </si>
+  <si>
+    <t>variable_1</t>
+  </si>
+  <si>
+    <t>accident_route___variable_13---value</t>
+  </si>
+  <si>
+    <t>accident_route___variable_13---value_1</t>
+  </si>
+  <si>
+    <t>accident_route___variable_13---value_2</t>
+  </si>
+  <si>
+    <t>accident_route___variable_13---value_3</t>
+  </si>
+  <si>
+    <t>accident_route___variable_1</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_1</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_2</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_3</t>
+  </si>
+  <si>
+    <t>accident_route___variable_13</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_4</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_5</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_6</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_7</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_8</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_9</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_10</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_11</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_12</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_13</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_14</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_2 long with a lot of text</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_2 long with a lot of text, but like a lot of text very very very</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_13---value_2 long with a lot of text, but like a lot of text very very very value_2 long with a lot of text, but like a lot of text very very very</t>
   </si>
 </sst>
 </file>
@@ -1223,6 +1328,704 @@
         <v>83</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47">
+        <v>1753871814</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>1753871814</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>1753871814</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1753871964</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1753871964</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1753871964</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1753871964</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1753871964</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1753871964</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1753871964</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1753874536</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1753874536</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1753874536</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1753874536</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1753874536</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1753874536</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1753874536</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1753874536</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1753874564</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1753874564</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1753874564</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1753874564</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1753874564</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1753874564</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1753874564</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1753874564</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1753875837</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1753875837</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1753875837</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1753875837</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1753875837</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1753875837</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1753875837</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1753875837</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1753875837</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1753875837</v>
+      </c>
+      <c r="B82" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1753875837</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1753875837</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
+        <v>84</v>
+      </c>
+      <c r="G84" t="s">
+        <v>114</v>
+      </c>
+      <c r="H84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1753876042</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1753876042</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1753876086</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1753876086</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1753876146</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1753876146</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1753879819</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1753879819</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>ser_pub_loc___variable_13---value_2 long with a lot of text, but like a lot of text very very very value_2 long with a lot of text, but like a lot of text very very very</t>
+  </si>
+  <si>
+    <t>2021/05</t>
   </si>
 </sst>
 </file>
@@ -2026,6 +2029,29 @@
         <v>76</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93">
+        <v>1757018090</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/public/data/db_source/evolution.xlsx
+++ b/public/data/db_source/evolution.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6682A45-800E-AF49-A1BD-7D3F35D7AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="120">
   <si>
     <t>timestamp</t>
   </si>
@@ -376,21 +385,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,17 +419,355 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf/>
-    <xf fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1737208669</v>
       </c>
@@ -472,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1737633510</v>
       </c>
@@ -495,7 +842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1737633510</v>
       </c>
@@ -518,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1737635096</v>
       </c>
@@ -541,7 +888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1737638842</v>
       </c>
@@ -564,7 +911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1737638842</v>
       </c>
@@ -587,7 +934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1737639740</v>
       </c>
@@ -610,7 +957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1746359037</v>
       </c>
@@ -633,7 +980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1746734601</v>
       </c>
@@ -653,7 +1000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1746734601</v>
       </c>
@@ -673,7 +1020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1746734601</v>
       </c>
@@ -693,7 +1040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1747315104</v>
       </c>
@@ -716,7 +1063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1747315150</v>
       </c>
@@ -736,7 +1083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1747315514</v>
       </c>
@@ -756,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1747315514</v>
       </c>
@@ -776,7 +1123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1747315529</v>
       </c>
@@ -796,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1747315547</v>
       </c>
@@ -816,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1747315547</v>
       </c>
@@ -836,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1747315547</v>
       </c>
@@ -856,7 +1203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1747315547</v>
       </c>
@@ -876,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1747315547</v>
       </c>
@@ -896,7 +1243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1747340787</v>
       </c>
@@ -916,7 +1263,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1747340787</v>
       </c>
@@ -936,7 +1283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1747340787</v>
       </c>
@@ -956,7 +1303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1747340787</v>
       </c>
@@ -976,7 +1323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1747906147</v>
       </c>
@@ -996,7 +1343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1747906281</v>
       </c>
@@ -1010,7 +1357,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1747906551</v>
       </c>
@@ -1030,7 +1377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1747906551</v>
       </c>
@@ -1050,7 +1397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1747906566</v>
       </c>
@@ -1073,7 +1420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1747907576</v>
       </c>
@@ -1087,7 +1434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1747907576</v>
       </c>
@@ -1101,7 +1448,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1747907625</v>
       </c>
@@ -1115,7 +1462,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1747907625</v>
       </c>
@@ -1129,7 +1476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1747913177</v>
       </c>
@@ -1143,7 +1490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1747913221</v>
       </c>
@@ -1163,7 +1510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1747913221</v>
       </c>
@@ -1183,7 +1530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1747913314</v>
       </c>
@@ -1203,7 +1550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1747913314</v>
       </c>
@@ -1223,7 +1570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1747918633</v>
       </c>
@@ -1243,7 +1590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1747921769</v>
       </c>
@@ -1263,7 +1610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1747921769</v>
       </c>
@@ -1283,7 +1630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1747921769</v>
       </c>
@@ -1303,7 +1650,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1749897806</v>
       </c>
@@ -1317,7 +1664,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1749897806</v>
       </c>
@@ -1331,7 +1678,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1753871814</v>
       </c>
@@ -1345,7 +1692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1753871814</v>
       </c>
@@ -1359,7 +1706,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1753871814</v>
       </c>
@@ -1373,7 +1720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1753871964</v>
       </c>
@@ -1387,7 +1734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1753871964</v>
       </c>
@@ -1401,7 +1748,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1753871964</v>
       </c>
@@ -1415,7 +1762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1753871964</v>
       </c>
@@ -1429,7 +1776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1753871964</v>
       </c>
@@ -1446,7 +1793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1753871964</v>
       </c>
@@ -1463,7 +1810,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1753871964</v>
       </c>
@@ -1480,7 +1827,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1753874536</v>
       </c>
@@ -1494,7 +1841,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1753874536</v>
       </c>
@@ -1508,7 +1855,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1753874536</v>
       </c>
@@ -1522,7 +1869,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1753874536</v>
       </c>
@@ -1536,7 +1883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1753874536</v>
       </c>
@@ -1553,7 +1900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1753874536</v>
       </c>
@@ -1570,7 +1917,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1753874536</v>
       </c>
@@ -1587,7 +1934,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1753874536</v>
       </c>
@@ -1604,7 +1951,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1753874564</v>
       </c>
@@ -1618,7 +1965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1753874564</v>
       </c>
@@ -1632,7 +1979,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1753874564</v>
       </c>
@@ -1646,7 +1993,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1753874564</v>
       </c>
@@ -1660,7 +2007,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1753874564</v>
       </c>
@@ -1677,7 +2024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1753874564</v>
       </c>
@@ -1694,7 +2041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1753874564</v>
       </c>
@@ -1711,7 +2058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1753874564</v>
       </c>
@@ -1728,7 +2075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1753875837</v>
       </c>
@@ -1742,7 +2089,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1753875837</v>
       </c>
@@ -1756,7 +2103,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1753875837</v>
       </c>
@@ -1770,7 +2117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1753875837</v>
       </c>
@@ -1784,7 +2131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1753875837</v>
       </c>
@@ -1798,7 +2145,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1753875837</v>
       </c>
@@ -1812,7 +2159,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1753875837</v>
       </c>
@@ -1826,7 +2173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1753875837</v>
       </c>
@@ -1840,7 +2187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1753875837</v>
       </c>
@@ -1854,7 +2201,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1753875837</v>
       </c>
@@ -1868,7 +2215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1753875837</v>
       </c>
@@ -1882,7 +2229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1753875837</v>
       </c>
@@ -1905,7 +2252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1753876042</v>
       </c>
@@ -1919,7 +2266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1753876042</v>
       </c>
@@ -1936,7 +2283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1753876086</v>
       </c>
@@ -1950,7 +2297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1753876086</v>
       </c>
@@ -1967,7 +2314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1753876146</v>
       </c>
@@ -1981,7 +2328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1753876146</v>
       </c>
@@ -1998,7 +2345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1753879819</v>
       </c>
@@ -2012,7 +2359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1753879819</v>
       </c>
@@ -2029,7 +2376,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1757018090</v>
       </c>
@@ -2053,5 +2400,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>